--- a/pesantren/Leger  Mabaiz Kelas 3.xlsx
+++ b/pesantren/Leger  Mabaiz Kelas 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7147DED0-B8AE-4CEC-802F-15FF5F20A10F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA4579-A33F-40C8-9B60-F68A87FAD0A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANGKA (Input Nilai)" sheetId="1" r:id="rId1"/>
@@ -990,70 +990,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,6 +1032,70 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,11 +1315,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA2" sqref="AA2:AA14"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1439,42 +1439,42 @@
       <c r="B2" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="78">
+      <c r="C2" s="50">
         <v>77.650000000000006</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IF(C2&gt;=93,"Istimewa",IF(C2&gt;=88,"Sangat Baik",IF(C2&gt;=76,"Baik",IF(C2&gt;=70,"Cukup",IF(C2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="54">
         <v>75.569714285714298</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>IF(E2&gt;=93,"Istimewa",IF(E2&gt;=88,"Sangat Baik",IF(E2&gt;=76,"Baik",IF(E2&gt;=70,"Cukup",IF(E2&lt;70,"Kurang")))))</f>
         <v>Cukup</v>
       </c>
-      <c r="G2" s="80">
+      <c r="G2" s="52">
         <v>80.84742857142858</v>
       </c>
       <c r="H2" s="1" t="str">
         <f t="shared" ref="H2:H25" si="0">IF(G2&gt;=93,"Istimewa",IF(G2&gt;=88,"Sangat Baik",IF(G2&gt;=76,"Baik",IF(G2&gt;=70,"Cukup",IF(G2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="I2" s="83">
+      <c r="I2" s="55">
         <v>80.214285714285722</v>
       </c>
       <c r="J2" s="1" t="str">
         <f t="shared" ref="J2:J17" si="1">IF(I2&gt;=93,"Istimewa",IF(I2&gt;=88,"Sangat Baik",IF(I2&gt;=76,"Baik",IF(I2&gt;=70,"Cukup",IF(I2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="K2" s="82">
+      <c r="K2" s="54">
         <v>80.427500000000009</v>
       </c>
       <c r="L2" s="1" t="str">
         <f t="shared" ref="L2:L17" si="2">IF(K2&gt;=93,"Istimewa",IF(K2&gt;=88,"Sangat Baik",IF(K2&gt;=76,"Baik",IF(K2&gt;=70,"Cukup",IF(K2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="M2" s="80">
+      <c r="M2" s="52">
         <v>70.45</v>
       </c>
       <c r="N2" s="9" t="str">
@@ -1501,7 +1501,7 @@
         <f>IF(U2&gt;=93,"Istimewa",IF(U2&gt;=88,"Sangat Baik",IF(U2&gt;=76,"Baik",IF(U2&gt;=70,"Cukup",IF(U2&lt;70,"Kurang")))))</f>
         <v>Kurang</v>
       </c>
-      <c r="W2" s="82">
+      <c r="W2" s="54">
         <v>84.83850000000001</v>
       </c>
       <c r="X2" s="9" t="str">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="Y2" s="11">
         <f>'Leger Cetak '!P8</f>
-        <v>43.287690476190477</v>
+        <v>49.999766233766238</v>
       </c>
       <c r="Z2" s="11">
         <f>'Leger Cetak '!O8</f>
@@ -1531,42 +1531,42 @@
       <c r="B3" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="50">
         <v>81.075000000000003</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3" si="7">IF(C3&gt;=93,"Istimewa",IF(C3&gt;=88,"Sangat Baik",IF(C3&gt;=76,"Baik",IF(C3&gt;=70,"Cukup",IF(C3&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="54">
         <v>86.765357142857141</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F25" si="8">IF(E3&gt;=93,"Istimewa",IF(E3&gt;=88,"Sangat Baik",IF(E3&gt;=76,"Baik",IF(E3&gt;=70,"Cukup",IF(E3&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="G3" s="80">
+      <c r="G3" s="52">
         <v>86.364428571428576</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="55">
         <v>85.950000000000017</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="54">
         <v>81.979107142857146</v>
       </c>
       <c r="L3" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M3" s="80">
+      <c r="M3" s="52">
         <v>81.597500000000011</v>
       </c>
       <c r="N3" s="9" t="str">
@@ -1593,7 +1593,7 @@
         <f t="shared" ref="V3:V17" si="9">IF(U3&gt;=93,"Istimewa",IF(U3&gt;=88,"Sangat Baik",IF(U3&gt;=76,"Baik",IF(U3&gt;=70,"Cukup",IF(U3&lt;70,"Kurang")))))</f>
         <v>Kurang</v>
       </c>
-      <c r="W3" s="82">
+      <c r="W3" s="54">
         <v>88.632000000000005</v>
       </c>
       <c r="X3" s="9" t="str">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="Y3" s="11">
         <f>'Leger Cetak '!P9</f>
-        <v>46.329559523809529</v>
+        <v>53.851217532467537</v>
       </c>
       <c r="Z3" s="11">
         <f>'Leger Cetak '!O9</f>
@@ -1623,42 +1623,42 @@
       <c r="B4" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="78">
+      <c r="C4" s="50">
         <v>83.800000000000011</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" ref="D4:D17" si="11">IF(C4&gt;=93,"Istimewa",IF(C4&gt;=88,"Sangat Baik",IF(C4&gt;=76,"Baik",IF(C4&gt;=70,"Cukup Baik",IF(C4&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="54">
         <v>87.921428571428578</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
-      <c r="G4" s="80">
+      <c r="G4" s="52">
         <v>89.724571428571437</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I4" s="83">
+      <c r="I4" s="55">
         <v>88.200000000000017</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="54">
         <v>86.991250000000008</v>
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M4" s="80">
+      <c r="M4" s="52">
         <v>82.935000000000002</v>
       </c>
       <c r="N4" s="9" t="str">
@@ -1685,7 +1685,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W4" s="82">
+      <c r="W4" s="54">
         <v>90.990000000000009</v>
       </c>
       <c r="X4" s="9" t="str">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="Y4" s="11">
         <f>'Leger Cetak '!P10</f>
-        <v>47.961202380952393</v>
+        <v>55.505659090909106</v>
       </c>
       <c r="Z4" s="11">
         <f>'Leger Cetak '!O10</f>
@@ -1715,42 +1715,42 @@
       <c r="B5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="50">
         <v>81.25</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="54">
         <v>83.535714285714292</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="52">
         <v>87.012428571428572</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="55">
         <v>84.15</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="54">
         <v>84.768214285714294</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M5" s="80">
+      <c r="M5" s="52">
         <v>79.29000000000002</v>
       </c>
       <c r="N5" s="9" t="str">
@@ -1777,7 +1777,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W5" s="82">
+      <c r="W5" s="54">
         <v>89.073000000000008</v>
       </c>
       <c r="X5" s="9" t="str">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="Y5" s="11">
         <f>'Leger Cetak '!P11</f>
-        <v>46.274515873015872</v>
+        <v>53.552668831168837</v>
       </c>
       <c r="Z5" s="11">
         <f>'Leger Cetak '!O11</f>
@@ -1807,42 +1807,42 @@
       <c r="B6" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="50">
         <v>83.974999999999994</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="54">
         <v>85.328928571428577</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="52">
         <v>88.339428571428584</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="55">
         <v>85.107142857142861</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="54">
         <v>83.374107142857156</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M6" s="80">
+      <c r="M6" s="52">
         <v>77.907499999999999</v>
       </c>
       <c r="N6" s="9" t="str">
@@ -1869,7 +1869,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W6" s="82">
+      <c r="W6" s="54">
         <v>81.448999999999998</v>
       </c>
       <c r="X6" s="9" t="str">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="Y6" s="11">
         <f>'Leger Cetak '!P12</f>
-        <v>46.522575396825395</v>
+        <v>53.225555194805196</v>
       </c>
       <c r="Z6" s="11">
         <f>'Leger Cetak '!O12</f>
@@ -1899,42 +1899,42 @@
       <c r="B7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="50">
         <v>81.45</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="54">
         <v>80.41</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="52">
         <v>82.395428571428567</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="55">
         <v>82.407142857142873</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="54">
         <v>83.676964285714291</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M7" s="80">
+      <c r="M7" s="52">
         <v>74.319999999999993</v>
       </c>
       <c r="N7" s="9" t="str">
@@ -1961,7 +1961,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W7" s="82">
+      <c r="W7" s="54">
         <v>88.276499999999999</v>
       </c>
       <c r="X7" s="9" t="str">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="Y7" s="11">
         <f>'Leger Cetak '!P13</f>
-        <v>44.91661507936508</v>
+        <v>52.085094155844153</v>
       </c>
       <c r="Z7" s="11">
         <f>'Leger Cetak '!O13</f>
@@ -1991,42 +1991,42 @@
       <c r="B8" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="50">
         <v>79.45</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="54">
         <v>81.21678571428572</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="52">
         <v>83.48171428571429</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="55">
         <v>81.564285714285717</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K8" s="82">
+      <c r="K8" s="54">
         <v>79.158035714285717</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M8" s="80">
+      <c r="M8" s="52">
         <v>75.355000000000004</v>
       </c>
       <c r="N8" s="9" t="str">
@@ -2053,7 +2053,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W8" s="82">
+      <c r="W8" s="54">
         <v>87.988500000000016</v>
       </c>
       <c r="X8" s="9" t="str">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="Y8" s="11">
         <f>'Leger Cetak '!P14</f>
-        <v>44.334337301587304</v>
+        <v>51.655847402597402</v>
       </c>
       <c r="Z8" s="11">
         <f>'Leger Cetak '!O14</f>
@@ -2083,42 +2083,42 @@
       <c r="B9" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="50">
         <v>85.9</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="54">
         <v>90.441428571428574</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="52">
         <v>88.382214285714298</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="55">
         <v>87.75</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K9" s="82">
+      <c r="K9" s="54">
         <v>85.631785714285712</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M9" s="80">
+      <c r="M9" s="52">
         <v>80.337500000000006</v>
       </c>
       <c r="N9" s="9" t="str">
@@ -2145,7 +2145,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W9" s="82">
+      <c r="W9" s="54">
         <v>87.52000000000001</v>
       </c>
       <c r="X9" s="9" t="str">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="Y9" s="11">
         <f>'Leger Cetak '!P15</f>
-        <v>47.555722222222215</v>
+        <v>55.087538961038952</v>
       </c>
       <c r="Z9" s="11">
         <f>'Leger Cetak '!O15</f>
@@ -2175,42 +2175,42 @@
       <c r="B10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="50">
         <v>84.525000000000006</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="54">
         <v>86.457142857142856</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="52">
         <v>83.49071428571429</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="55">
         <v>84.15</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="54">
         <v>86.373392857142861</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M10" s="80">
+      <c r="M10" s="52">
         <v>75.67</v>
       </c>
       <c r="N10" s="9" t="str">
@@ -2237,7 +2237,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W10" s="82">
+      <c r="W10" s="54">
         <v>81.323000000000008</v>
       </c>
       <c r="X10" s="9" t="str">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="Y10" s="11">
         <f>'Leger Cetak '!P16</f>
-        <v>46.023234126984136</v>
+        <v>52.90811363636363</v>
       </c>
       <c r="Z10" s="11">
         <f>'Leger Cetak '!O16</f>
@@ -2267,42 +2267,42 @@
       <c r="B11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="50">
         <v>81</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="54">
         <v>84.347499999999997</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
-      <c r="G11" s="80">
+      <c r="G11" s="52">
         <v>79.339428571428584</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="55">
         <v>82.071428571428584</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K11" s="82">
+      <c r="K11" s="54">
         <v>82.081250000000011</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M11" s="80">
+      <c r="M11" s="52">
         <v>70</v>
       </c>
       <c r="N11" s="9" t="str">
@@ -2329,7 +2329,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W11" s="82">
+      <c r="W11" s="54">
         <v>83.744500000000016</v>
       </c>
       <c r="X11" s="9" t="str">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="Y11" s="11">
         <f>'Leger Cetak '!P17</f>
-        <v>43.832456349206353</v>
+        <v>51.144009740259747</v>
       </c>
       <c r="Z11" s="11">
         <f>'Leger Cetak '!O17</f>
@@ -2359,42 +2359,42 @@
       <c r="B12" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="50">
         <v>84</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="54">
         <v>89.157142857142873</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="52">
         <v>91.764428571428567</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="55">
         <v>84.600000000000009</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K12" s="82">
+      <c r="K12" s="54">
         <v>86.035892857142869</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M12" s="80">
+      <c r="M12" s="52">
         <v>82.902500000000003</v>
       </c>
       <c r="N12" s="9" t="str">
@@ -2421,7 +2421,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W12" s="82">
+      <c r="W12" s="54">
         <v>87.565500000000014</v>
       </c>
       <c r="X12" s="9" t="str">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="Y12" s="11">
         <f>'Leger Cetak '!P18</f>
-        <v>47.700313492063486</v>
+        <v>55.093224025974038</v>
       </c>
       <c r="Z12" s="11">
         <f>'Leger Cetak '!O18</f>
@@ -2451,42 +2451,42 @@
       <c r="B13" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="50">
         <v>86.800000000000011</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="54">
         <v>91.857142857142861</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="52">
         <v>90.885571428571438</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="55">
         <v>90.450000000000017</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="54">
         <v>86.103392857142865</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M13" s="80">
+      <c r="M13" s="52">
         <v>83.176000000000002</v>
       </c>
       <c r="N13" s="9" t="str">
@@ -2513,7 +2513,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W13" s="82">
+      <c r="W13" s="54">
         <v>85.251499999999993</v>
       </c>
       <c r="X13" s="9" t="str">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="Y13" s="11">
         <f>'Leger Cetak '!P19</f>
-        <v>48.601662698412696</v>
+        <v>55.865782467532469</v>
       </c>
       <c r="Z13" s="11">
         <f>'Leger Cetak '!O19</f>
@@ -2540,42 +2540,42 @@
       <c r="B14" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="51">
         <v>81.900000000000006</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="53">
         <v>85.214642857142863</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="51">
         <v>87.108714285714285</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I14" s="53">
         <v>86.850000000000009</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="51">
         <v>86.362142857142857</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M14" s="81">
+      <c r="M14" s="53">
         <v>82.007000000000005</v>
       </c>
       <c r="N14" s="9" t="str">
@@ -2602,7 +2602,7 @@
         <f t="shared" si="9"/>
         <v>Kurang</v>
       </c>
-      <c r="W14" s="81">
+      <c r="W14" s="53">
         <v>91.070999999999998</v>
       </c>
       <c r="X14" s="9" t="str">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="Y14" s="11">
         <f>'Leger Cetak '!P20</f>
-        <v>47.136428571428581</v>
+        <v>54.592136363636364</v>
       </c>
       <c r="Z14" s="11">
         <f>'Leger Cetak '!O20</f>
@@ -18947,11 +18947,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -19041,38 +19041,38 @@
         <f>'ANGKA (Input Nilai)'!B2</f>
         <v>ARVIANDOW</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="56" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="N2" s="91" t="s">
+      <c r="N2" s="63" t="s">
         <v>134</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="92" t="s">
+      <c r="R2" s="64" t="s">
         <v>135</v>
       </c>
       <c r="S2" s="1"/>
@@ -19095,29 +19095,29 @@
         <f>'ANGKA (Input Nilai)'!B3</f>
         <v>AYATURRAHMAN SHINRA AUFA</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="56" t="s">
         <v>94</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="21"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="62" t="s">
         <v>130</v>
       </c>
       <c r="N3" s="22"/>
@@ -19145,29 +19145,29 @@
         <f>'ANGKA (Input Nilai)'!B4</f>
         <v>HAZWAN HAFIZUDDIN</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="56" t="s">
         <v>94</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="90" t="s">
+      <c r="M4" s="62" t="s">
         <v>131</v>
       </c>
       <c r="N4" s="22"/>
@@ -19195,29 +19195,29 @@
         <f>'ANGKA (Input Nilai)'!B5</f>
         <v>KHALID GHAZY</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="89" t="s">
+      <c r="G5" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="56" t="s">
         <v>94</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="21"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="62" t="s">
         <v>130</v>
       </c>
       <c r="N5" s="22"/>
@@ -19245,29 +19245,29 @@
         <f>'ANGKA (Input Nilai)'!B6</f>
         <v>MILA NAJIYAH</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="56" t="s">
         <v>94</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="21"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="62" t="s">
         <v>130</v>
       </c>
       <c r="N6" s="22"/>
@@ -19295,29 +19295,29 @@
         <f>'ANGKA (Input Nilai)'!B7</f>
         <v>MUHAMMAD RADJA</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="H7" s="56" t="s">
         <v>93</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="21"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="90" t="s">
+      <c r="M7" s="62" t="s">
         <v>131</v>
       </c>
       <c r="N7" s="22"/>
@@ -19345,29 +19345,29 @@
         <f>'ANGKA (Input Nilai)'!B8</f>
         <v>MUHAMMAD RAYHAN</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="89" t="s">
+      <c r="G8" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="56" t="s">
         <v>93</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="90" t="s">
+      <c r="M8" s="62" t="s">
         <v>132</v>
       </c>
       <c r="N8" s="22"/>
@@ -19395,29 +19395,29 @@
         <f>'ANGKA (Input Nilai)'!B9</f>
         <v>NAJWA HANI FILLAH</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="56" t="s">
         <v>94</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="90" t="s">
+      <c r="M9" s="62" t="s">
         <v>130</v>
       </c>
       <c r="N9" s="22"/>
@@ -19445,29 +19445,29 @@
         <f>'ANGKA (Input Nilai)'!B10</f>
         <v>NAYLA IZZATUL HASANAH</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="56" t="s">
         <v>93</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="21"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="90" t="s">
+      <c r="M10" s="62" t="s">
         <v>129</v>
       </c>
       <c r="N10" s="22"/>
@@ -19485,29 +19485,29 @@
         <f>'ANGKA (Input Nilai)'!B11</f>
         <v>NIDA KHALWATUS S</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="56" t="s">
         <v>93</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="21"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="90" t="s">
+      <c r="M11" s="62" t="s">
         <v>129</v>
       </c>
       <c r="N11" s="22"/>
@@ -19525,29 +19525,29 @@
         <f>'ANGKA (Input Nilai)'!B12</f>
         <v>RIHAL MUHARRIKUL HAQ</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="89" t="s">
+      <c r="G12" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="56" t="s">
         <v>94</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="90" t="s">
+      <c r="M12" s="62" t="s">
         <v>129</v>
       </c>
       <c r="N12" s="22"/>
@@ -19565,29 +19565,29 @@
         <f>'ANGKA (Input Nilai)'!B13</f>
         <v>SAFARAZ AUFA RIFDAH</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="H13" s="56" t="s">
         <v>94</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="90" t="s">
+      <c r="M13" s="62" t="s">
         <v>133</v>
       </c>
       <c r="N13" s="22"/>
@@ -19605,29 +19605,29 @@
         <f>'ANGKA (Input Nilai)'!B14</f>
         <v>WALDAN FAIQ HASAN</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="89" t="s">
+      <c r="G14" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="56" t="s">
         <v>94</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="21"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="90" t="s">
+      <c r="M14" s="62" t="s">
         <v>132</v>
       </c>
       <c r="N14" s="22"/>
@@ -23832,8 +23832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -23852,136 +23852,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
     </row>
     <row r="2" spans="1:28" ht="15.75">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
     </row>
     <row r="4" spans="1:28">
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="64" t="s">
+      <c r="L5" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="62" t="s">
+      <c r="O5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="P5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="62" t="s">
+      <c r="Q5" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="56" t="s">
+      <c r="R5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="57"/>
-      <c r="T5" s="58"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="73"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -23992,45 +23992,45 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="61"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="76"/>
     </row>
     <row r="7" spans="1:28" ht="63" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
       <c r="R7" s="24" t="s">
         <v>19</v>
       </c>
@@ -24110,8 +24110,8 @@
         <v>465.15892857142859</v>
       </c>
       <c r="P8" s="28">
-        <f t="shared" ref="P8:P28" si="1">AVERAGE(D8,F8,G8,H8,I8,J8,K8,L8,M8)</f>
-        <v>43.287690476190477</v>
+        <f t="shared" ref="P8:P20" si="1">AVERAGE(D8,E8,F8,G8,H8,I8,J8,K8,L8,M8,N8)</f>
+        <v>49.999766233766238</v>
       </c>
       <c r="Q8" s="29">
         <f t="shared" ref="Q8:Q23" si="2">RANK(O8,$O$8:$O$23)</f>
@@ -24192,7 +24192,7 @@
       </c>
       <c r="P9" s="28">
         <f t="shared" si="1"/>
-        <v>46.329559523809529</v>
+        <v>53.851217532467537</v>
       </c>
       <c r="Q9" s="29">
         <f t="shared" si="2"/>
@@ -24273,7 +24273,7 @@
       </c>
       <c r="P10" s="28">
         <f t="shared" si="1"/>
-        <v>47.961202380952393</v>
+        <v>55.505659090909106</v>
       </c>
       <c r="Q10" s="29">
         <f t="shared" si="2"/>
@@ -24354,7 +24354,7 @@
       </c>
       <c r="P11" s="28">
         <f t="shared" si="1"/>
-        <v>46.274515873015872</v>
+        <v>53.552668831168837</v>
       </c>
       <c r="Q11" s="29">
         <f t="shared" si="2"/>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="P12" s="28">
         <f t="shared" si="1"/>
-        <v>46.522575396825395</v>
+        <v>53.225555194805196</v>
       </c>
       <c r="Q12" s="29">
         <f t="shared" si="2"/>
@@ -24516,7 +24516,7 @@
       </c>
       <c r="P13" s="28">
         <f t="shared" si="1"/>
-        <v>44.91661507936508</v>
+        <v>52.085094155844153</v>
       </c>
       <c r="Q13" s="29">
         <f t="shared" si="2"/>
@@ -24597,7 +24597,7 @@
       </c>
       <c r="P14" s="28">
         <f t="shared" si="1"/>
-        <v>44.334337301587304</v>
+        <v>51.655847402597402</v>
       </c>
       <c r="Q14" s="29">
         <f t="shared" si="2"/>
@@ -24678,7 +24678,7 @@
       </c>
       <c r="P15" s="28">
         <f t="shared" si="1"/>
-        <v>47.555722222222215</v>
+        <v>55.087538961038952</v>
       </c>
       <c r="Q15" s="29">
         <f t="shared" si="2"/>
@@ -24759,7 +24759,7 @@
       </c>
       <c r="P16" s="28">
         <f t="shared" si="1"/>
-        <v>46.023234126984136</v>
+        <v>52.90811363636363</v>
       </c>
       <c r="Q16" s="29">
         <f t="shared" si="2"/>
@@ -24840,7 +24840,7 @@
       </c>
       <c r="P17" s="28">
         <f t="shared" si="1"/>
-        <v>43.832456349206353</v>
+        <v>51.144009740259747</v>
       </c>
       <c r="Q17" s="29">
         <f t="shared" si="2"/>
@@ -24921,7 +24921,7 @@
       </c>
       <c r="P18" s="28">
         <f t="shared" si="1"/>
-        <v>47.700313492063486</v>
+        <v>55.093224025974038</v>
       </c>
       <c r="Q18" s="29">
         <f t="shared" si="2"/>
@@ -25002,7 +25002,7 @@
       </c>
       <c r="P19" s="28">
         <f t="shared" si="1"/>
-        <v>48.601662698412696</v>
+        <v>55.865782467532469</v>
       </c>
       <c r="Q19" s="29">
         <f t="shared" si="2"/>
@@ -25083,7 +25083,7 @@
       </c>
       <c r="P20" s="28">
         <f t="shared" si="1"/>
-        <v>47.136428571428581</v>
+        <v>54.592136363636364</v>
       </c>
       <c r="Q20" s="29">
         <f t="shared" si="2"/>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="P21:P28" si="3">AVERAGE(D21,F21,G21,H21,I21,J21,K21,L21,M21)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="29">
@@ -25232,7 +25232,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q22" s="29">
@@ -25307,7 +25307,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q23" s="29">
@@ -25382,11 +25382,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q24" s="29">
-        <f t="shared" ref="Q24:Q28" si="3">RANK(O24,$O$8:$O$23)</f>
+        <f t="shared" ref="Q24:Q28" si="4">RANK(O24,$O$8:$O$23)</f>
         <v>14</v>
       </c>
       <c r="R24" s="30">
@@ -25457,11 +25457,11 @@
         <v>0</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q25" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="R25" s="30">
@@ -25532,11 +25532,11 @@
         <v>0</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q26" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="R26" s="30">
@@ -25607,11 +25607,11 @@
         <v>0</v>
       </c>
       <c r="P27" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q27" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="R27" s="30">
@@ -25682,11 +25682,11 @@
         <v>0</v>
       </c>
       <c r="P28" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="R28" s="30">
@@ -25722,62 +25722,62 @@
       <c r="Q29" s="34"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="35">
-        <f t="shared" ref="D30:P30" si="4">AVERAGE(D8:D23)</f>
+        <f t="shared" ref="D30:P30" si="5">AVERAGE(D8:D23)</f>
         <v>67.048437500000006</v>
       </c>
       <c r="E30" s="35">
-        <f t="shared" ref="E30" si="5">AVERAGE(E8:E23)</f>
+        <f t="shared" ref="E30" si="6">AVERAGE(E8:E23)</f>
         <v>69.263933035714288</v>
       </c>
       <c r="F30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69.946031250000004</v>
       </c>
       <c r="G30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.966517857142861</v>
       </c>
       <c r="H30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.310189732142859</v>
       </c>
       <c r="I30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.496750000000006</v>
       </c>
       <c r="J30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N30" s="35">
-        <f t="shared" ref="N30" si="6">AVERAGE(N8:N23)</f>
+        <f t="shared" ref="N30" si="7">AVERAGE(N8:N23)</f>
         <v>70.482687499999997</v>
       </c>
       <c r="O30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>407.03185937500001</v>
       </c>
       <c r="P30" s="35">
-        <f t="shared" si="4"/>
-        <v>37.529769593253974</v>
+        <f t="shared" si="5"/>
+        <v>43.410413352272727</v>
       </c>
       <c r="Q30" s="36"/>
       <c r="R30" s="36"/>
@@ -25793,61 +25793,61 @@
       <c r="AB30" s="36"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="28">
-        <f t="shared" ref="D31:P31" si="7">MIN(D8:D23)</f>
+        <f t="shared" ref="D31:P31" si="8">MIN(D8:D23)</f>
         <v>0</v>
       </c>
       <c r="E31" s="28">
-        <f t="shared" ref="E31" si="8">MIN(E8:E23)</f>
+        <f t="shared" ref="E31" si="9">MIN(E8:E23)</f>
         <v>0</v>
       </c>
       <c r="F31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N31" s="28">
-        <f t="shared" ref="N31" si="9">MIN(N8:N23)</f>
+        <f t="shared" ref="N31" si="10">MIN(N8:N23)</f>
         <v>0</v>
       </c>
       <c r="O31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P31" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q31" s="23"/>
@@ -25864,62 +25864,62 @@
       <c r="AB31" s="23"/>
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="28">
-        <f t="shared" ref="D32:P32" si="10">MAX(D8:D23)</f>
+        <f t="shared" ref="D32:P32" si="11">MAX(D8:D23)</f>
         <v>86.800000000000011</v>
       </c>
       <c r="E32" s="28">
-        <f t="shared" ref="E32" si="11">MAX(E8:E23)</f>
+        <f t="shared" ref="E32" si="12">MAX(E8:E23)</f>
         <v>91.857142857142861</v>
       </c>
       <c r="F32" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>91.764428571428567</v>
       </c>
       <c r="G32" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>90.450000000000017</v>
       </c>
       <c r="H32" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86.991250000000008</v>
       </c>
       <c r="I32" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83.176000000000002</v>
       </c>
       <c r="J32" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K32" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L32" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M32" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N32" s="28">
-        <f t="shared" ref="N32" si="12">MAX(N8:N23)</f>
+        <f t="shared" ref="N32" si="13">MAX(N8:N23)</f>
         <v>91.070999999999998</v>
       </c>
       <c r="O32" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>529.27210714285718</v>
       </c>
       <c r="P32" s="28">
-        <f t="shared" si="10"/>
-        <v>48.601662698412696</v>
+        <f t="shared" si="11"/>
+        <v>55.865782467532469</v>
       </c>
       <c r="Q32" s="23"/>
       <c r="R32" s="23"/>

--- a/pesantren/Leger  Mabaiz Kelas 3.xlsx
+++ b/pesantren/Leger  Mabaiz Kelas 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\zen\pesantren\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23A4354-F0E7-4D60-A37C-C6E5C21EA885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B506659D-3DE2-442E-9CEA-636798E034EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,26 +983,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,6 +1027,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1041,33 +1048,37 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{6F05B2DA-66F2-4281-8309-36985B1B058A}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1398,7 +1409,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="52" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1407,77 +1418,77 @@
       <c r="C2" s="41">
         <v>77.650000000000006</v>
       </c>
-      <c r="D2" s="79" t="str">
+      <c r="D2" s="53" t="str">
         <f>IF(C2&gt;=93,"Istimewa",IF(C2&gt;=88,"Sangat Baik",IF(C2&gt;=76,"Baik",IF(C2&gt;=70,"Cukup",IF(C2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
       <c r="E2" s="42">
         <v>75.569714285714298</v>
       </c>
-      <c r="F2" s="79" t="str">
+      <c r="F2" s="53" t="str">
         <f>IF(E2&gt;=93,"Istimewa",IF(E2&gt;=88,"Sangat Baik",IF(E2&gt;=76,"Baik",IF(E2&gt;=70,"Cukup",IF(E2&lt;70,"Kurang")))))</f>
         <v>Cukup</v>
       </c>
       <c r="G2" s="42">
         <v>80.84742857142858</v>
       </c>
-      <c r="H2" s="79" t="str">
+      <c r="H2" s="53" t="str">
         <f t="shared" ref="H2:H14" si="0">IF(G2&gt;=93,"Istimewa",IF(G2&gt;=88,"Sangat Baik",IF(G2&gt;=76,"Baik",IF(G2&gt;=70,"Cukup",IF(G2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="I2" s="80">
+      <c r="I2" s="54">
         <v>80.214285714285722</v>
       </c>
-      <c r="J2" s="79" t="str">
+      <c r="J2" s="53" t="str">
         <f t="shared" ref="J2:J14" si="1">IF(I2&gt;=93,"Istimewa",IF(I2&gt;=88,"Sangat Baik",IF(I2&gt;=76,"Baik",IF(I2&gt;=70,"Cukup",IF(I2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
       <c r="K2" s="42">
         <v>80.427500000000009</v>
       </c>
-      <c r="L2" s="79" t="str">
+      <c r="L2" s="53" t="str">
         <f t="shared" ref="L2:L14" si="2">IF(K2&gt;=93,"Istimewa",IF(K2&gt;=88,"Sangat Baik",IF(K2&gt;=76,"Baik",IF(K2&gt;=70,"Cukup",IF(K2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
       <c r="M2" s="42">
         <v>70.45</v>
       </c>
-      <c r="N2" s="81" t="str">
+      <c r="N2" s="55" t="str">
         <f t="shared" ref="N2:N14" si="3">IF(M2&gt;=93,"Istimewa",IF(M2&gt;=88,"Sangat Baik",IF(M2&gt;=76,"Baik",IF(M2&gt;=70,"Cukup",IF(M2&lt;70,"Kurang")))))</f>
         <v>Cukup</v>
       </c>
-      <c r="O2" s="82">
+      <c r="O2" s="56">
         <v>80</v>
       </c>
-      <c r="P2" s="81" t="str">
+      <c r="P2" s="55" t="str">
         <f t="shared" ref="P2:P14" si="4">IF(O2&gt;=93,"Istimewa",IF(O2&gt;=88,"Sangat Baik",IF(O2&gt;=76,"Baik",IF(O2&gt;=70,"Cukup",IF(O2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="Q2" s="83">
+      <c r="Q2" s="57">
         <v>80</v>
       </c>
-      <c r="R2" s="81" t="str">
+      <c r="R2" s="55" t="str">
         <f t="shared" ref="R2:R14" si="5">IF(Q2&gt;=93,"Istimewa",IF(Q2&gt;=88,"Sangat Baik",IF(Q2&gt;=76,"Baik",IF(Q2&gt;=70,"Cukup",IF(Q2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="S2" s="82">
+      <c r="S2" s="56">
         <v>80</v>
       </c>
-      <c r="T2" s="81" t="str">
+      <c r="T2" s="55" t="str">
         <f t="shared" ref="T2:T14" si="6">IF(S2&gt;=93,"Istimewa",IF(S2&gt;=88,"Sangat Baik",IF(S2&gt;=76,"Baik",IF(S2&gt;=70,"Cukup",IF(S2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
-      <c r="U2" s="82">
+      <c r="U2" s="56">
         <v>80</v>
       </c>
-      <c r="V2" s="81" t="str">
+      <c r="V2" s="55" t="str">
         <f>IF(U2&gt;=93,"Istimewa",IF(U2&gt;=88,"Sangat Baik",IF(U2&gt;=76,"Baik",IF(U2&gt;=70,"Cukup",IF(U2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
       <c r="W2" s="42">
         <v>84.83850000000001</v>
       </c>
-      <c r="X2" s="81" t="str">
+      <c r="X2" s="55" t="str">
         <f>IF(W2&gt;=93,"Istimewa",IF(W2&gt;=88,"Sangat Baik",IF(W2&gt;=76,"Baik",IF(W2&gt;=70,"Cukup",IF(W2&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
@@ -1498,7 +1509,7 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="15.75">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="58" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1507,77 +1518,77 @@
       <c r="C3" s="41">
         <v>81.075000000000003</v>
       </c>
-      <c r="D3" s="79" t="str">
+      <c r="D3" s="53" t="str">
         <f t="shared" ref="D3" si="7">IF(C3&gt;=93,"Istimewa",IF(C3&gt;=88,"Sangat Baik",IF(C3&gt;=76,"Baik",IF(C3&gt;=70,"Cukup",IF(C3&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
       <c r="E3" s="42">
         <v>86.765357142857141</v>
       </c>
-      <c r="F3" s="79" t="str">
+      <c r="F3" s="53" t="str">
         <f t="shared" ref="F3:F14" si="8">IF(E3&gt;=93,"Istimewa",IF(E3&gt;=88,"Sangat Baik",IF(E3&gt;=76,"Baik",IF(E3&gt;=70,"Cukup",IF(E3&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
       <c r="G3" s="42">
         <v>86.364428571428576</v>
       </c>
-      <c r="H3" s="79" t="str">
+      <c r="H3" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I3" s="80">
+      <c r="I3" s="54">
         <v>85.950000000000017</v>
       </c>
-      <c r="J3" s="79" t="str">
+      <c r="J3" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
       <c r="K3" s="42">
         <v>81.979107142857146</v>
       </c>
-      <c r="L3" s="79" t="str">
+      <c r="L3" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M3" s="42">
         <v>81.597500000000011</v>
       </c>
-      <c r="N3" s="81" t="str">
+      <c r="N3" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Baik</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="56">
         <v>80</v>
       </c>
-      <c r="P3" s="81" t="str">
+      <c r="P3" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q3" s="83">
+      <c r="Q3" s="57">
         <v>80</v>
       </c>
-      <c r="R3" s="81" t="str">
+      <c r="R3" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S3" s="82">
+      <c r="S3" s="56">
         <v>80</v>
       </c>
-      <c r="T3" s="81" t="str">
+      <c r="T3" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U3" s="82">
+      <c r="U3" s="56">
         <v>80</v>
       </c>
-      <c r="V3" s="81" t="str">
+      <c r="V3" s="55" t="str">
         <f t="shared" ref="V3:V14" si="9">IF(U3&gt;=93,"Istimewa",IF(U3&gt;=88,"Sangat Baik",IF(U3&gt;=76,"Baik",IF(U3&gt;=70,"Cukup",IF(U3&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
       <c r="W3" s="42">
         <v>88.632000000000005</v>
       </c>
-      <c r="X3" s="81" t="str">
+      <c r="X3" s="55" t="str">
         <f t="shared" ref="X3:X14" si="10">IF(W3&gt;=93,"Istimewa",IF(W3&gt;=88,"Sangat Baik",IF(W3&gt;=76,"Baik",IF(W3&gt;=70,"Cukup",IF(W3&lt;70,"Kurang")))))</f>
         <v>Sangat Baik</v>
       </c>
@@ -1598,7 +1609,7 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="15.75">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="58" t="s">
         <v>82</v>
       </c>
       <c r="B4" s="39" t="s">
@@ -1607,77 +1618,77 @@
       <c r="C4" s="41">
         <v>83.800000000000011</v>
       </c>
-      <c r="D4" s="79" t="str">
+      <c r="D4" s="53" t="str">
         <f t="shared" ref="D4:D14" si="11">IF(C4&gt;=93,"Istimewa",IF(C4&gt;=88,"Sangat Baik",IF(C4&gt;=76,"Baik",IF(C4&gt;=70,"Cukup Baik",IF(C4&lt;70,"Kurang")))))</f>
         <v>Baik</v>
       </c>
       <c r="E4" s="42">
         <v>87.921428571428578</v>
       </c>
-      <c r="F4" s="79" t="str">
+      <c r="F4" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
       <c r="G4" s="42">
         <v>89.724571428571437</v>
       </c>
-      <c r="H4" s="79" t="str">
+      <c r="H4" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="54">
         <v>88.200000000000017</v>
       </c>
-      <c r="J4" s="79" t="str">
+      <c r="J4" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Sangat Baik</v>
       </c>
       <c r="K4" s="42">
         <v>86.991250000000008</v>
       </c>
-      <c r="L4" s="79" t="str">
+      <c r="L4" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M4" s="42">
         <v>82.935000000000002</v>
       </c>
-      <c r="N4" s="81" t="str">
+      <c r="N4" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Baik</v>
       </c>
-      <c r="O4" s="82">
+      <c r="O4" s="56">
         <v>80</v>
       </c>
-      <c r="P4" s="81" t="str">
+      <c r="P4" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q4" s="83">
+      <c r="Q4" s="57">
         <v>80</v>
       </c>
-      <c r="R4" s="81" t="str">
+      <c r="R4" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S4" s="82">
+      <c r="S4" s="56">
         <v>80</v>
       </c>
-      <c r="T4" s="81" t="str">
+      <c r="T4" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U4" s="82">
+      <c r="U4" s="56">
         <v>80</v>
       </c>
-      <c r="V4" s="81" t="str">
+      <c r="V4" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W4" s="42">
         <v>90.990000000000009</v>
       </c>
-      <c r="X4" s="81" t="str">
+      <c r="X4" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Sangat Baik</v>
       </c>
@@ -1698,7 +1709,7 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" ht="15.75">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="58" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="39" t="s">
@@ -1707,77 +1718,77 @@
       <c r="C5" s="41">
         <v>81.25</v>
       </c>
-      <c r="D5" s="79" t="str">
+      <c r="D5" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
       <c r="E5" s="42">
         <v>83.535714285714292</v>
       </c>
-      <c r="F5" s="79" t="str">
+      <c r="F5" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
       <c r="G5" s="42">
         <v>87.012428571428572</v>
       </c>
-      <c r="H5" s="79" t="str">
+      <c r="H5" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I5" s="54">
         <v>84.15</v>
       </c>
-      <c r="J5" s="79" t="str">
+      <c r="J5" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
       <c r="K5" s="42">
         <v>84.768214285714294</v>
       </c>
-      <c r="L5" s="79" t="str">
+      <c r="L5" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M5" s="42">
         <v>79.29000000000002</v>
       </c>
-      <c r="N5" s="81" t="str">
+      <c r="N5" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Baik</v>
       </c>
-      <c r="O5" s="82">
+      <c r="O5" s="56">
         <v>80</v>
       </c>
-      <c r="P5" s="81" t="str">
+      <c r="P5" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q5" s="83">
+      <c r="Q5" s="57">
         <v>80</v>
       </c>
-      <c r="R5" s="81" t="str">
+      <c r="R5" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S5" s="82">
+      <c r="S5" s="56">
         <v>80</v>
       </c>
-      <c r="T5" s="81" t="str">
+      <c r="T5" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U5" s="82">
+      <c r="U5" s="56">
         <v>80</v>
       </c>
-      <c r="V5" s="81" t="str">
+      <c r="V5" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W5" s="42">
         <v>89.073000000000008</v>
       </c>
-      <c r="X5" s="81" t="str">
+      <c r="X5" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Sangat Baik</v>
       </c>
@@ -1798,7 +1809,7 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" spans="1:30" ht="15.75">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="52" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="39" t="s">
@@ -1807,77 +1818,77 @@
       <c r="C6" s="41">
         <v>83.974999999999994</v>
       </c>
-      <c r="D6" s="79" t="str">
+      <c r="D6" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
       <c r="E6" s="42">
         <v>85.328928571428577</v>
       </c>
-      <c r="F6" s="79" t="str">
+      <c r="F6" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
       <c r="G6" s="42">
         <v>88.339428571428584</v>
       </c>
-      <c r="H6" s="79" t="str">
+      <c r="H6" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="54">
         <v>85.107142857142861</v>
       </c>
-      <c r="J6" s="79" t="str">
+      <c r="J6" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
       <c r="K6" s="42">
         <v>83.374107142857156</v>
       </c>
-      <c r="L6" s="79" t="str">
+      <c r="L6" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M6" s="42">
         <v>77.907499999999999</v>
       </c>
-      <c r="N6" s="81" t="str">
+      <c r="N6" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Baik</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="56">
         <v>80</v>
       </c>
-      <c r="P6" s="81" t="str">
+      <c r="P6" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q6" s="83">
+      <c r="Q6" s="57">
         <v>80</v>
       </c>
-      <c r="R6" s="81" t="str">
+      <c r="R6" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S6" s="82">
+      <c r="S6" s="56">
         <v>80</v>
       </c>
-      <c r="T6" s="81" t="str">
+      <c r="T6" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U6" s="82">
+      <c r="U6" s="56">
         <v>80</v>
       </c>
-      <c r="V6" s="81" t="str">
+      <c r="V6" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W6" s="42">
         <v>81.448999999999998</v>
       </c>
-      <c r="X6" s="81" t="str">
+      <c r="X6" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Baik</v>
       </c>
@@ -1898,7 +1909,7 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="15.75">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="58" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -1907,77 +1918,77 @@
       <c r="C7" s="41">
         <v>81.45</v>
       </c>
-      <c r="D7" s="79" t="str">
+      <c r="D7" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
       <c r="E7" s="42">
         <v>80.41</v>
       </c>
-      <c r="F7" s="79" t="str">
+      <c r="F7" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
       <c r="G7" s="42">
         <v>82.395428571428567</v>
       </c>
-      <c r="H7" s="79" t="str">
+      <c r="H7" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="54">
         <v>82.407142857142873</v>
       </c>
-      <c r="J7" s="79" t="str">
+      <c r="J7" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
       <c r="K7" s="42">
         <v>83.676964285714291</v>
       </c>
-      <c r="L7" s="79" t="str">
+      <c r="L7" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M7" s="42">
         <v>74.319999999999993</v>
       </c>
-      <c r="N7" s="81" t="str">
+      <c r="N7" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Cukup</v>
       </c>
-      <c r="O7" s="82">
+      <c r="O7" s="56">
         <v>80</v>
       </c>
-      <c r="P7" s="81" t="str">
+      <c r="P7" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q7" s="83">
+      <c r="Q7" s="57">
         <v>80</v>
       </c>
-      <c r="R7" s="81" t="str">
+      <c r="R7" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S7" s="82">
+      <c r="S7" s="56">
         <v>80</v>
       </c>
-      <c r="T7" s="81" t="str">
+      <c r="T7" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U7" s="82">
+      <c r="U7" s="56">
         <v>80</v>
       </c>
-      <c r="V7" s="81" t="str">
+      <c r="V7" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W7" s="42">
         <v>88.276499999999999</v>
       </c>
-      <c r="X7" s="81" t="str">
+      <c r="X7" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Sangat Baik</v>
       </c>
@@ -1998,7 +2009,7 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="15.75">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="52" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="39" t="s">
@@ -2007,77 +2018,77 @@
       <c r="C8" s="41">
         <v>79.45</v>
       </c>
-      <c r="D8" s="79" t="str">
+      <c r="D8" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
       <c r="E8" s="42">
         <v>81.21678571428572</v>
       </c>
-      <c r="F8" s="79" t="str">
+      <c r="F8" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
       <c r="G8" s="42">
         <v>83.48171428571429</v>
       </c>
-      <c r="H8" s="79" t="str">
+      <c r="H8" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I8" s="80">
+      <c r="I8" s="54">
         <v>81.564285714285717</v>
       </c>
-      <c r="J8" s="79" t="str">
+      <c r="J8" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
       <c r="K8" s="42">
         <v>79.158035714285717</v>
       </c>
-      <c r="L8" s="79" t="str">
+      <c r="L8" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M8" s="42">
         <v>75.355000000000004</v>
       </c>
-      <c r="N8" s="81" t="str">
+      <c r="N8" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Cukup</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="56">
         <v>80</v>
       </c>
-      <c r="P8" s="81" t="str">
+      <c r="P8" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q8" s="83">
+      <c r="Q8" s="57">
         <v>80</v>
       </c>
-      <c r="R8" s="81" t="str">
+      <c r="R8" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S8" s="82">
+      <c r="S8" s="56">
         <v>80</v>
       </c>
-      <c r="T8" s="81" t="str">
+      <c r="T8" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U8" s="82">
+      <c r="U8" s="56">
         <v>80</v>
       </c>
-      <c r="V8" s="81" t="str">
+      <c r="V8" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W8" s="42">
         <v>87.988500000000016</v>
       </c>
-      <c r="X8" s="81" t="str">
+      <c r="X8" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Baik</v>
       </c>
@@ -2098,7 +2109,7 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="15.75">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="52" t="s">
         <v>87</v>
       </c>
       <c r="B9" s="39" t="s">
@@ -2107,77 +2118,77 @@
       <c r="C9" s="41">
         <v>85.9</v>
       </c>
-      <c r="D9" s="79" t="str">
+      <c r="D9" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
       <c r="E9" s="42">
         <v>90.441428571428574</v>
       </c>
-      <c r="F9" s="79" t="str">
+      <c r="F9" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Sangat Baik</v>
       </c>
       <c r="G9" s="42">
         <v>88.382214285714298</v>
       </c>
-      <c r="H9" s="79" t="str">
+      <c r="H9" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I9" s="80">
+      <c r="I9" s="54">
         <v>87.75</v>
       </c>
-      <c r="J9" s="79" t="str">
+      <c r="J9" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
       <c r="K9" s="42">
         <v>85.631785714285712</v>
       </c>
-      <c r="L9" s="79" t="str">
+      <c r="L9" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M9" s="42">
         <v>80.337500000000006</v>
       </c>
-      <c r="N9" s="81" t="str">
+      <c r="N9" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Baik</v>
       </c>
-      <c r="O9" s="82">
+      <c r="O9" s="56">
         <v>80</v>
       </c>
-      <c r="P9" s="81" t="str">
+      <c r="P9" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q9" s="83">
+      <c r="Q9" s="57">
         <v>80</v>
       </c>
-      <c r="R9" s="81" t="str">
+      <c r="R9" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S9" s="82">
+      <c r="S9" s="56">
         <v>80</v>
       </c>
-      <c r="T9" s="81" t="str">
+      <c r="T9" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U9" s="82">
+      <c r="U9" s="56">
         <v>80</v>
       </c>
-      <c r="V9" s="81" t="str">
+      <c r="V9" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W9" s="42">
         <v>87.52000000000001</v>
       </c>
-      <c r="X9" s="81" t="str">
+      <c r="X9" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Baik</v>
       </c>
@@ -2198,7 +2209,7 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="15.75">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="52" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="39" t="s">
@@ -2207,77 +2218,77 @@
       <c r="C10" s="41">
         <v>84.525000000000006</v>
       </c>
-      <c r="D10" s="79" t="str">
+      <c r="D10" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
       <c r="E10" s="42">
         <v>86.457142857142856</v>
       </c>
-      <c r="F10" s="79" t="str">
+      <c r="F10" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
       <c r="G10" s="42">
         <v>83.49071428571429</v>
       </c>
-      <c r="H10" s="79" t="str">
+      <c r="H10" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="54">
         <v>84.15</v>
       </c>
-      <c r="J10" s="79" t="str">
+      <c r="J10" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
       <c r="K10" s="42">
         <v>86.373392857142861</v>
       </c>
-      <c r="L10" s="79" t="str">
+      <c r="L10" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M10" s="42">
         <v>75.67</v>
       </c>
-      <c r="N10" s="81" t="str">
+      <c r="N10" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Cukup</v>
       </c>
-      <c r="O10" s="82">
+      <c r="O10" s="56">
         <v>80</v>
       </c>
-      <c r="P10" s="81" t="str">
+      <c r="P10" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q10" s="83">
+      <c r="Q10" s="57">
         <v>80</v>
       </c>
-      <c r="R10" s="81" t="str">
+      <c r="R10" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S10" s="82">
+      <c r="S10" s="56">
         <v>80</v>
       </c>
-      <c r="T10" s="81" t="str">
+      <c r="T10" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U10" s="82">
+      <c r="U10" s="56">
         <v>80</v>
       </c>
-      <c r="V10" s="81" t="str">
+      <c r="V10" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W10" s="42">
         <v>81.323000000000008</v>
       </c>
-      <c r="X10" s="81" t="str">
+      <c r="X10" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Baik</v>
       </c>
@@ -2298,7 +2309,7 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="15.75">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="52" t="s">
         <v>89</v>
       </c>
       <c r="B11" s="39" t="s">
@@ -2307,77 +2318,77 @@
       <c r="C11" s="41">
         <v>81</v>
       </c>
-      <c r="D11" s="79" t="str">
+      <c r="D11" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
       <c r="E11" s="42">
         <v>84.347499999999997</v>
       </c>
-      <c r="F11" s="79" t="str">
+      <c r="F11" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
       <c r="G11" s="42">
         <v>79.339428571428584</v>
       </c>
-      <c r="H11" s="79" t="str">
+      <c r="H11" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I11" s="80">
+      <c r="I11" s="54">
         <v>82.071428571428584</v>
       </c>
-      <c r="J11" s="79" t="str">
+      <c r="J11" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
       <c r="K11" s="42">
         <v>82.081250000000011</v>
       </c>
-      <c r="L11" s="79" t="str">
+      <c r="L11" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M11" s="42">
         <v>70</v>
       </c>
-      <c r="N11" s="81" t="str">
+      <c r="N11" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Cukup</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11" s="56">
         <v>80</v>
       </c>
-      <c r="P11" s="81" t="str">
+      <c r="P11" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q11" s="83">
+      <c r="Q11" s="57">
         <v>80</v>
       </c>
-      <c r="R11" s="81" t="str">
+      <c r="R11" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S11" s="82">
+      <c r="S11" s="56">
         <v>80</v>
       </c>
-      <c r="T11" s="81" t="str">
+      <c r="T11" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U11" s="82">
+      <c r="U11" s="56">
         <v>80</v>
       </c>
-      <c r="V11" s="81" t="str">
+      <c r="V11" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W11" s="42">
         <v>83.744500000000016</v>
       </c>
-      <c r="X11" s="81" t="str">
+      <c r="X11" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Baik</v>
       </c>
@@ -2398,7 +2409,7 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="15.75">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="52" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -2407,77 +2418,77 @@
       <c r="C12" s="41">
         <v>84</v>
       </c>
-      <c r="D12" s="79" t="str">
+      <c r="D12" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
       <c r="E12" s="42">
         <v>89.157142857142873</v>
       </c>
-      <c r="F12" s="79" t="str">
+      <c r="F12" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Sangat Baik</v>
       </c>
       <c r="G12" s="42">
         <v>91.764428571428567</v>
       </c>
-      <c r="H12" s="79" t="str">
+      <c r="H12" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="54">
         <v>84.600000000000009</v>
       </c>
-      <c r="J12" s="79" t="str">
+      <c r="J12" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
       <c r="K12" s="42">
         <v>86.035892857142869</v>
       </c>
-      <c r="L12" s="79" t="str">
+      <c r="L12" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M12" s="42">
         <v>82.902500000000003</v>
       </c>
-      <c r="N12" s="81" t="str">
+      <c r="N12" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Baik</v>
       </c>
-      <c r="O12" s="82">
+      <c r="O12" s="56">
         <v>80</v>
       </c>
-      <c r="P12" s="81" t="str">
+      <c r="P12" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q12" s="83">
+      <c r="Q12" s="57">
         <v>80</v>
       </c>
-      <c r="R12" s="81" t="str">
+      <c r="R12" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S12" s="82">
+      <c r="S12" s="56">
         <v>80</v>
       </c>
-      <c r="T12" s="81" t="str">
+      <c r="T12" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U12" s="82">
+      <c r="U12" s="56">
         <v>80</v>
       </c>
-      <c r="V12" s="81" t="str">
+      <c r="V12" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W12" s="42">
         <v>87.565500000000014</v>
       </c>
-      <c r="X12" s="81" t="str">
+      <c r="X12" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Baik</v>
       </c>
@@ -2498,7 +2509,7 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="52" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="35" t="s">
@@ -2507,77 +2518,77 @@
       <c r="C13" s="41">
         <v>86.800000000000011</v>
       </c>
-      <c r="D13" s="79" t="str">
+      <c r="D13" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
       <c r="E13" s="42">
         <v>91.857142857142861</v>
       </c>
-      <c r="F13" s="79" t="str">
+      <c r="F13" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Sangat Baik</v>
       </c>
       <c r="G13" s="42">
         <v>90.885571428571438</v>
       </c>
-      <c r="H13" s="79" t="str">
+      <c r="H13" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="54">
         <v>90.450000000000017</v>
       </c>
-      <c r="J13" s="79" t="str">
+      <c r="J13" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Sangat Baik</v>
       </c>
       <c r="K13" s="42">
         <v>86.103392857142865</v>
       </c>
-      <c r="L13" s="79" t="str">
+      <c r="L13" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
       <c r="M13" s="42">
         <v>83.176000000000002</v>
       </c>
-      <c r="N13" s="81" t="str">
+      <c r="N13" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Baik</v>
       </c>
-      <c r="O13" s="82">
+      <c r="O13" s="56">
         <v>80</v>
       </c>
-      <c r="P13" s="81" t="str">
+      <c r="P13" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q13" s="83">
+      <c r="Q13" s="57">
         <v>80</v>
       </c>
-      <c r="R13" s="81" t="str">
+      <c r="R13" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S13" s="82">
+      <c r="S13" s="56">
         <v>80</v>
       </c>
-      <c r="T13" s="81" t="str">
+      <c r="T13" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U13" s="82">
+      <c r="U13" s="56">
         <v>80</v>
       </c>
-      <c r="V13" s="81" t="str">
+      <c r="V13" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
       <c r="W13" s="42">
         <v>85.251499999999993</v>
       </c>
-      <c r="X13" s="81" t="str">
+      <c r="X13" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Baik</v>
       </c>
@@ -2595,86 +2606,86 @@
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="52" t="s">
         <v>92</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="59">
         <v>81.900000000000006</v>
       </c>
-      <c r="D14" s="79" t="str">
+      <c r="D14" s="53" t="str">
         <f t="shared" si="11"/>
         <v>Baik</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="60">
         <v>85.214642857142863</v>
       </c>
-      <c r="F14" s="79" t="str">
+      <c r="F14" s="53" t="str">
         <f t="shared" si="8"/>
         <v>Baik</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="59">
         <v>87.108714285714285</v>
       </c>
-      <c r="H14" s="79" t="str">
+      <c r="H14" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Baik</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="60">
         <v>86.850000000000009</v>
       </c>
-      <c r="J14" s="79" t="str">
+      <c r="J14" s="53" t="str">
         <f t="shared" si="1"/>
         <v>Baik</v>
       </c>
-      <c r="K14" s="85">
+      <c r="K14" s="59">
         <v>86.362142857142857</v>
       </c>
-      <c r="L14" s="79" t="str">
+      <c r="L14" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Baik</v>
       </c>
-      <c r="M14" s="86">
+      <c r="M14" s="60">
         <v>82.007000000000005</v>
       </c>
-      <c r="N14" s="81" t="str">
+      <c r="N14" s="55" t="str">
         <f t="shared" si="3"/>
         <v>Baik</v>
       </c>
-      <c r="O14" s="82">
+      <c r="O14" s="56">
         <v>80</v>
       </c>
-      <c r="P14" s="81" t="str">
+      <c r="P14" s="55" t="str">
         <f t="shared" si="4"/>
         <v>Baik</v>
       </c>
-      <c r="Q14" s="83">
+      <c r="Q14" s="57">
         <v>80</v>
       </c>
-      <c r="R14" s="81" t="str">
+      <c r="R14" s="55" t="str">
         <f t="shared" si="5"/>
         <v>Baik</v>
       </c>
-      <c r="S14" s="82">
+      <c r="S14" s="56">
         <v>80</v>
       </c>
-      <c r="T14" s="81" t="str">
+      <c r="T14" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Baik</v>
       </c>
-      <c r="U14" s="82">
+      <c r="U14" s="56">
         <v>80</v>
       </c>
-      <c r="V14" s="81" t="str">
+      <c r="V14" s="55" t="str">
         <f t="shared" si="9"/>
         <v>Baik</v>
       </c>
-      <c r="W14" s="86">
+      <c r="W14" s="60">
         <v>91.070999999999998</v>
       </c>
-      <c r="X14" s="81" t="str">
+      <c r="X14" s="55" t="str">
         <f t="shared" si="10"/>
         <v>Sangat Baik</v>
       </c>
@@ -23264,8 +23275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -23284,136 +23295,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:28" ht="15.75">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:28">
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="72" t="s">
+      <c r="O5" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="72" t="s">
+      <c r="P5" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="72" t="s">
+      <c r="Q5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="66" t="s">
+      <c r="R5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="67"/>
-      <c r="T5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="69"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -23424,45 +23435,45 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="71"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="72"/>
     </row>
     <row r="7" spans="1:28" ht="63" customHeight="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
       <c r="R7" s="19" t="s">
         <v>19</v>
       </c>
@@ -23546,7 +23557,7 @@
         <v>79.090675324675331</v>
       </c>
       <c r="Q8" s="24">
-        <f>RANK(O8,$O$8:$O$20)</f>
+        <f t="shared" ref="Q8:Q20" si="1">RANK(O8,$O$8:$O$20)</f>
         <v>13</v>
       </c>
       <c r="R8" s="25">
@@ -23619,7 +23630,7 @@
         <v>88.632000000000005</v>
       </c>
       <c r="O9" s="23">
-        <f t="shared" ref="O9:O20" si="1">SUM(D9:N9)</f>
+        <f t="shared" ref="O9:O20" si="2">SUM(D9:N9)</f>
         <v>912.36339285714303</v>
       </c>
       <c r="P9" s="23">
@@ -23627,7 +23638,7 @@
         <v>82.942126623376637</v>
       </c>
       <c r="Q9" s="24">
-        <f>RANK(O9,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R9" s="25">
@@ -23700,7 +23711,7 @@
         <v>90.990000000000009</v>
       </c>
       <c r="O10" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>930.56225000000018</v>
       </c>
       <c r="P10" s="23">
@@ -23708,7 +23719,7 @@
         <v>84.596568181818199</v>
       </c>
       <c r="Q10" s="24">
-        <f>RANK(O10,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R10" s="25">
@@ -23781,7 +23792,7 @@
         <v>89.073000000000008</v>
       </c>
       <c r="O11" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>909.07935714285725</v>
       </c>
       <c r="P11" s="23">
@@ -23789,7 +23800,7 @@
         <v>82.643577922077938</v>
       </c>
       <c r="Q11" s="24">
-        <f>RANK(O11,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="R11" s="25">
@@ -23862,7 +23873,7 @@
         <v>81.448999999999998</v>
       </c>
       <c r="O12" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>905.48110714285713</v>
       </c>
       <c r="P12" s="23">
@@ -23870,7 +23881,7 @@
         <v>82.316464285714289</v>
       </c>
       <c r="Q12" s="24">
-        <f>RANK(O12,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="R12" s="25">
@@ -23943,7 +23954,7 @@
         <v>88.276499999999999</v>
       </c>
       <c r="O13" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>892.93603571428571</v>
       </c>
       <c r="P13" s="23">
@@ -23951,7 +23962,7 @@
         <v>81.17600324675324</v>
       </c>
       <c r="Q13" s="24">
-        <f>RANK(O13,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="R13" s="25">
@@ -24024,7 +24035,7 @@
         <v>87.988500000000016</v>
       </c>
       <c r="O14" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>888.21432142857145</v>
       </c>
       <c r="P14" s="23">
@@ -24032,7 +24043,7 @@
         <v>80.746756493506496</v>
       </c>
       <c r="Q14" s="24">
-        <f>RANK(O14,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="R14" s="25">
@@ -24105,7 +24116,7 @@
         <v>87.52000000000001</v>
       </c>
       <c r="O15" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>925.96292857142851</v>
       </c>
       <c r="P15" s="23">
@@ -24113,7 +24124,7 @@
         <v>84.178448051948052</v>
       </c>
       <c r="Q15" s="24">
-        <f>RANK(O15,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R15" s="25">
@@ -24186,7 +24197,7 @@
         <v>81.323000000000008</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>901.98924999999997</v>
       </c>
       <c r="P16" s="23">
@@ -24194,7 +24205,7 @@
         <v>81.999022727272731</v>
       </c>
       <c r="Q16" s="24">
-        <f>RANK(O16,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="R16" s="25">
@@ -24267,7 +24278,7 @@
         <v>83.744500000000016</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>882.58410714285719</v>
       </c>
       <c r="P17" s="23">
@@ -24275,7 +24286,7 @@
         <v>80.234918831168841</v>
       </c>
       <c r="Q17" s="24">
-        <f>RANK(O17,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="R17" s="25">
@@ -24348,7 +24359,7 @@
         <v>87.565500000000014</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>926.02546428571441</v>
       </c>
       <c r="P18" s="23">
@@ -24356,7 +24367,7 @@
         <v>84.184133116883132</v>
       </c>
       <c r="Q18" s="24">
-        <f>RANK(O18,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R18" s="25">
@@ -24429,7 +24440,7 @@
         <v>85.251499999999993</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>934.52360714285714</v>
       </c>
       <c r="P19" s="23">
@@ -24437,7 +24448,7 @@
         <v>84.956691558441563</v>
       </c>
       <c r="Q19" s="24">
-        <f>RANK(O19,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R19" s="25">
@@ -24510,7 +24521,7 @@
         <v>91.070999999999998</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>920.51350000000014</v>
       </c>
       <c r="P20" s="23">
@@ -24518,7 +24529,7 @@
         <v>83.683045454545464</v>
       </c>
       <c r="Q20" s="24">
-        <f>RANK(O20,$O$8:$O$20)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R20" s="25">
@@ -24535,121 +24546,121 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="29">
-        <f>AVERAGE(D8:D20)</f>
+        <f t="shared" ref="D21:P21" si="3">AVERAGE(D8:D20)</f>
         <v>82.521153846153851</v>
       </c>
       <c r="E21" s="29">
-        <f>AVERAGE(E8:E20)</f>
+        <f t="shared" si="3"/>
         <v>85.247917582417585</v>
       </c>
       <c r="F21" s="29">
-        <f>AVERAGE(F8:F20)</f>
+        <f t="shared" si="3"/>
         <v>86.087423076923088</v>
       </c>
       <c r="G21" s="29">
-        <f>AVERAGE(G8:G20)</f>
+        <f t="shared" si="3"/>
         <v>84.881868131868131</v>
       </c>
       <c r="H21" s="29">
-        <f>AVERAGE(H8:H20)</f>
+        <f t="shared" si="3"/>
         <v>84.074079670329667</v>
       </c>
       <c r="I21" s="29">
-        <f>AVERAGE(I8:I20)</f>
+        <f t="shared" si="3"/>
         <v>78.149846153846156</v>
       </c>
       <c r="J21" s="29">
-        <f>AVERAGE(J8:J20)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K21" s="29">
-        <f>AVERAGE(K8:K20)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="L21" s="29">
-        <f>AVERAGE(L8:L20)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="M21" s="29">
-        <f>AVERAGE(M8:M20)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="N21" s="29">
-        <f>AVERAGE(N8:N20)</f>
+        <f t="shared" si="3"/>
         <v>86.747923076923072</v>
       </c>
       <c r="O21" s="29">
-        <f>AVERAGE(O8:O20)</f>
+        <f t="shared" si="3"/>
         <v>907.71021153846164</v>
       </c>
       <c r="P21" s="29">
-        <f>AVERAGE(P8:P20)</f>
+        <f t="shared" si="3"/>
         <v>82.519110139860146</v>
       </c>
       <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="23">
-        <f>MIN(D8:D20)</f>
+        <f t="shared" ref="D22:P22" si="4">MIN(D8:D20)</f>
         <v>77.650000000000006</v>
       </c>
       <c r="E22" s="23">
-        <f>MIN(E8:E20)</f>
+        <f t="shared" si="4"/>
         <v>75.569714285714298</v>
       </c>
       <c r="F22" s="23">
-        <f>MIN(F8:F20)</f>
+        <f t="shared" si="4"/>
         <v>79.339428571428584</v>
       </c>
       <c r="G22" s="23">
-        <f>MIN(G8:G20)</f>
+        <f t="shared" si="4"/>
         <v>80.214285714285722</v>
       </c>
       <c r="H22" s="23">
-        <f>MIN(H8:H20)</f>
+        <f t="shared" si="4"/>
         <v>79.158035714285717</v>
       </c>
       <c r="I22" s="23">
-        <f>MIN(I8:I20)</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="J22" s="23">
-        <f>MIN(J8:J20)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="K22" s="23">
-        <f>MIN(K8:K20)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="L22" s="23">
-        <f>MIN(L8:L20)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="M22" s="23">
-        <f>MIN(M8:M20)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="N22" s="23">
-        <f>MIN(N8:N20)</f>
+        <f t="shared" si="4"/>
         <v>81.323000000000008</v>
       </c>
       <c r="O22" s="23">
-        <f>MIN(O8:O20)</f>
+        <f t="shared" si="4"/>
         <v>869.9974285714286</v>
       </c>
       <c r="P22" s="23">
-        <f>MIN(P8:P20)</f>
+        <f t="shared" si="4"/>
         <v>79.090675324675331</v>
       </c>
       <c r="Q22" s="30"/>
@@ -24658,61 +24669,61 @@
       <c r="T22" s="30"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="23">
-        <f>MAX(D8:D20)</f>
+        <f t="shared" ref="D23:P23" si="5">MAX(D8:D20)</f>
         <v>86.800000000000011</v>
       </c>
       <c r="E23" s="23">
-        <f>MAX(E8:E20)</f>
+        <f t="shared" si="5"/>
         <v>91.857142857142861</v>
       </c>
       <c r="F23" s="23">
-        <f>MAX(F8:F20)</f>
+        <f t="shared" si="5"/>
         <v>91.764428571428567</v>
       </c>
       <c r="G23" s="23">
-        <f>MAX(G8:G20)</f>
+        <f t="shared" si="5"/>
         <v>90.450000000000017</v>
       </c>
       <c r="H23" s="23">
-        <f>MAX(H8:H20)</f>
+        <f t="shared" si="5"/>
         <v>86.991250000000008</v>
       </c>
       <c r="I23" s="23">
-        <f>MAX(I8:I20)</f>
+        <f t="shared" si="5"/>
         <v>83.176000000000002</v>
       </c>
       <c r="J23" s="23">
-        <f>MAX(J8:J20)</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="K23" s="23">
-        <f>MAX(K8:K20)</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="L23" s="23">
-        <f>MAX(L8:L20)</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="M23" s="23">
-        <f>MAX(M8:M20)</f>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="N23" s="23">
-        <f>MAX(N8:N20)</f>
+        <f t="shared" si="5"/>
         <v>91.070999999999998</v>
       </c>
       <c r="O23" s="23">
-        <f>MAX(O8:O20)</f>
+        <f t="shared" si="5"/>
         <v>934.52360714285714</v>
       </c>
       <c r="P23" s="23">
-        <f>MAX(P8:P20)</f>
+        <f t="shared" si="5"/>
         <v>84.956691558441563</v>
       </c>
       <c r="Q23" s="18"/>
@@ -28671,6 +28682,14 @@
     <row r="1005" spans="15:16" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="F5:F7"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -28687,15 +28706,12 @@
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
+  <conditionalFormatting sqref="Q8:Q20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.74803149606299202" bottom="0.15748031496063" header="0" footer="0"/>
   <pageSetup scale="90" orientation="landscape"/>
